--- a/upload/2506/2506_국제고_발주서_이가에프엔비.xlsx
+++ b/upload/2506/2506_국제고_발주서_이가에프엔비.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\이가에프앤비\00 a 급식계약\2506월 학진초_성동초_해원초_동아고_국제고\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B176AFE-0FBA-44C3-94C5-5EC28013F26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66410BB9-0607-4B96-974D-E24302AC7263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,6 +142,9 @@
     <t>합계</t>
   </si>
   <si>
+    <t>닭고기(가슴)(kg)</t>
+  </si>
+  <si>
     <t>닭고기(가슴)/냉장(kg)</t>
   </si>
   <si>
@@ -234,10 +237,6 @@
   </si>
   <si>
     <t>거래처명 : 국제고등학교</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭고기(가슴)(kg)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -373,6 +372,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -381,12 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,7 +704,7 @@
   <dimension ref="A2:AK16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -717,45 +716,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:37" ht="19.2">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="2" t="s">
@@ -764,7 +763,7 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -787,13 +786,13 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="10" t="s">
         <v>61</v>
       </c>
+      <c r="H5" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>8</v>
@@ -810,19 +809,19 @@
       <c r="N5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="T5" s="1" t="s">
@@ -834,13 +833,13 @@
       <c r="V5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="Y5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="Z5" s="1" t="s">
@@ -852,29 +851,29 @@
       <c r="AB5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AC5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AD5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AD5" s="12" t="s">
         <v>64</v>
       </c>
+      <c r="AE5" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="AF5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>28</v>
@@ -884,23 +883,23 @@
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>71</v>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <v>10</v>
       </c>
       <c r="I6" s="6"/>
@@ -909,10 +908,10 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="9">
+      <c r="O6" s="11">
         <v>70</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="11">
         <v>20</v>
       </c>
       <c r="Q6" s="7"/>
@@ -945,19 +944,19 @@
         <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -975,7 +974,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="9">
+      <c r="W7" s="11">
         <v>70</v>
       </c>
       <c r="X7" s="7"/>
@@ -1001,19 +1000,19 @@
         <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1032,7 +1031,7 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
-      <c r="X8" s="9">
+      <c r="X8" s="11">
         <v>20</v>
       </c>
       <c r="Y8" s="7"/>
@@ -1040,7 +1039,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
-      <c r="AD8" s="9">
+      <c r="AD8" s="11">
         <v>15</v>
       </c>
       <c r="AE8" s="7"/>
@@ -1059,7 +1058,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>30</v>
@@ -1071,7 +1070,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1085,7 +1084,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="9">
+      <c r="S9" s="11">
         <v>30</v>
       </c>
       <c r="T9" s="7"/>
@@ -1115,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
@@ -1127,12 +1126,12 @@
         <v>32</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="9">
+      <c r="J10" s="11">
         <v>85</v>
       </c>
       <c r="K10" s="7"/>
@@ -1171,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>30</v>
@@ -1183,7 +1182,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1208,7 +1207,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
-      <c r="AD11" s="9">
+      <c r="AD11" s="11">
         <v>80</v>
       </c>
       <c r="AE11" s="7"/>
@@ -1227,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
@@ -1239,7 +1238,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1263,11 +1262,11 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="9">
+      <c r="AC12" s="11">
         <v>20</v>
       </c>
       <c r="AD12" s="7"/>
-      <c r="AE12" s="9">
+      <c r="AE12" s="11">
         <v>20</v>
       </c>
       <c r="AF12" s="7"/>
@@ -1285,7 +1284,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
@@ -1297,7 +1296,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1317,13 +1316,13 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="9">
+      <c r="Y13" s="11">
         <v>120</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="9">
+      <c r="AC13" s="11">
         <v>20</v>
       </c>
       <c r="AD13" s="7"/>
@@ -1343,7 +1342,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
@@ -1355,7 +1354,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1369,7 +1368,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9">
+      <c r="S14" s="11">
         <v>15</v>
       </c>
       <c r="T14" s="7"/>
@@ -1399,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
@@ -1411,7 +1410,7 @@
         <v>32</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1424,7 +1423,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="9">
+      <c r="R15" s="11">
         <v>90</v>
       </c>
       <c r="S15" s="7"/>
